--- a/xlsx/感恩节_intext.xlsx
+++ b/xlsx/感恩节_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="229">
   <si>
     <t>感恩节</t>
   </si>
@@ -29,13 +29,13 @@
     <t>加拿大</t>
   </si>
   <si>
-    <t>政策_政策_美國_感恩节</t>
+    <t>政策_政策_美国_感恩节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E5%81%87%E6%97%A5</t>
@@ -47,9 +47,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E5%B8%9D</t>
   </si>
   <si>
@@ -77,7 +74,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E9%9B%9E</t>
   </si>
   <si>
-    <t>火雞</t>
+    <t>火鸡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E5%B8%83%E4%BB%80</t>
@@ -89,7 +86,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E5%AE%AE</t>
   </si>
   <si>
-    <t>白宮</t>
+    <t>白宫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%95%99%E6%94%B9%E9%9D%A9</t>
@@ -101,7 +98,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>新英格蘭</t>
+    <t>新英格兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%E5%85%AB%E4%B8%96</t>
@@ -119,13 +116,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%AA%95%E7%AF%80</t>
   </si>
   <si>
-    <t>聖誕節</t>
+    <t>圣诞节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%A9%E6%B4%BB%E7%AF%80</t>
   </si>
   <si>
-    <t>復活節</t>
+    <t>复活节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
@@ -137,7 +134,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%95%B5%E8%89%A6%E9%9A%8A</t>
   </si>
   <si>
-    <t>無敵艦隊</t>
+    <t>无敌舰队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%A6%AE%E5%A5%B3%E7%8E%8B</t>
@@ -149,25 +146,22 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>美國歷史</t>
+    <t>美国历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%9C%8B%E6%95%99</t>
   </si>
   <si>
-    <t>英國國教</t>
+    <t>英国国教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E6%9C%88%E8%8A%B1%E8%99%9F</t>
   </si>
   <si>
-    <t>五月花號</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%88%A9%E6%99%AE%E5%9C%8B%E7%8E%8B%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>菲利普國王戰爭</t>
+    <t>菲利普国王战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%8C%97%E6%B0%B4%E9%81%93</t>
@@ -179,13 +173,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%8A%AC%E5%B3%B6</t>
   </si>
   <si>
-    <t>巴芬島</t>
+    <t>巴芬岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%AA%E7%B4%8D%E6%AD%A6%E7%89%B9</t>
   </si>
   <si>
-    <t>努納武特</t>
+    <t>努纳武特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E7%BC%AA%E5%B0%94%C2%B7%E5%BE%B7%C2%B7%E5%B0%9A%E6%99%AE%E5%85%B0</t>
@@ -197,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%B3%95%E8%98%AD%E8%A5%BF</t>
   </si>
   <si>
-    <t>新法蘭西</t>
+    <t>新法兰西</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E4%BA%BA</t>
@@ -209,9 +203,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E5%85%B0</t>
   </si>
   <si>
-    <t>新英格兰</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0</t>
   </si>
   <si>
@@ -239,7 +230,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%9A%87%E9%BB%A8</t>
   </si>
   <si>
-    <t>保皇黨</t>
+    <t>保皇党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%BE%BE%E5%8A%A0%E6%96%AF%E5%8A%A0</t>
@@ -263,13 +254,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%BE%B7%E8%8F%AF%E7%8E%8B%E5%AD%90%E5%B3%B6</t>
   </si>
   <si>
-    <t>愛德華王子島</t>
+    <t>爱德华王子岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%8A%AC%E8%98%AD-%E6%8B%89%E5%B8%83%E6%8B%89%E5%A4%9A</t>
   </si>
   <si>
-    <t>紐芬蘭-拉布拉多</t>
+    <t>纽芬兰-拉布拉多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E4%B8%8D%E4%BC%A6%E7%91%9E%E5%85%8B</t>
@@ -365,7 +356,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E5%9C%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>加拿大國會</t>
+    <t>加拿大国会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E8%82%AF%E5%B0%BC%E8%BF%AA</t>
@@ -383,7 +374,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%8D%A8%E7%AB%8B</t>
   </si>
   <si>
-    <t>美國獨立</t>
+    <t>美国独立</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E5%B8%B0%E7%9C%81%E3%83%A9%E3%83%83%E3%82%B7%E3%83%A5</t>
@@ -407,7 +398,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E8%A5%BF%E7%99%BE%E8%B2%A8</t>
   </si>
   <si>
-    <t>梅西百貨</t>
+    <t>梅西百货</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E8%A5%BF%E6%84%9F%E6%81%A9%E8%8A%82%E5%A4%A7%E6%B8%B8%E8%A1%8C</t>
@@ -425,7 +416,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%88%B4%E8%96%AF%E6%B3%A5</t>
   </si>
   <si>
-    <t>馬鈴薯泥</t>
+    <t>马铃薯泥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%95%AA%E8%96%AF</t>
@@ -443,7 +434,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9E%9C%E9%86%AC</t>
   </si>
   <si>
-    <t>果醬</t>
+    <t>果酱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%93%9C</t>
@@ -455,7 +446,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%BC%8F%E9%A4%A1%E9%A4%85</t>
   </si>
   <si>
-    <t>西式餡餅</t>
+    <t>西式馅饼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E5%85%B0</t>
@@ -479,7 +470,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E7%94%98%E8%BF%BA%E8%BF%AA</t>
   </si>
   <si>
-    <t>約翰·甘迺迪</t>
+    <t>约翰·甘迺迪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%B0%BC%E8%BF%AA%E9%81%87%E5%88%BA</t>
@@ -491,13 +482,10 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E4%BC%AF%E6%8B%89%E7%BD%95%C2%B7%E6%9E%97%E8%82%AF</t>
   </si>
   <si>
-    <t>亞伯拉罕·林肯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E9%AD%AF%E9%96%80</t>
   </si>
   <si>
-    <t>杜魯門</t>
+    <t>杜鲁门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BE%E7%94%9F</t>
@@ -515,7 +503,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AB%E7%91%B0%E5%9C%92</t>
   </si>
   <si>
-    <t>玫瑰園</t>
+    <t>玫瑰园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%A6%E5%85%8D</t>
@@ -527,13 +515,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>維吉尼亞州</t>
+    <t>维吉尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9C%8B%E7%AF%80%E6%97%A5</t>
   </si>
   <si>
-    <t>Template talk-美國節日</t>
+    <t>Template talk-美国节日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%8A%82%E6%97%A5</t>
@@ -545,9 +533,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%AF%9E%E8%8A%82</t>
   </si>
   <si>
-    <t>圣诞节</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8B%AC%E7%AB%8B%E6%97%A5</t>
   </si>
   <si>
@@ -587,7 +572,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%81%B0%E6%98%9F%E6%9C%9F%E4%B8%89</t>
   </si>
   <si>
-    <t>聖灰星期三</t>
+    <t>圣灰星期三</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%92%E7%81%AF%E8%8A%82</t>
@@ -599,9 +584,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8D%E6%B4%BB%E8%8A%82</t>
   </si>
   <si>
-    <t>复活节</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8D%E6%B4%BB%E8%8A%82%E6%98%9F%E6%9C%9F%E4%B8%80</t>
   </si>
   <si>
@@ -611,7 +593,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E7%A9%8C%E5%8F%97%E9%9B%A3%E6%97%A5</t>
   </si>
   <si>
-    <t>耶穌受難日</t>
+    <t>耶稣受难日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%89%E6%98%8E%E8%8A%82</t>
@@ -629,7 +611,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%BA%E6%82%94%E6%98%9F%E6%9C%9F%E4%BA%8C</t>
   </si>
   <si>
-    <t>懺悔星期二</t>
+    <t>忏悔星期二</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%95%E6%9E%9D%E4%B8%BB%E6%97%A5</t>
@@ -695,13 +677,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%A4%9A%E5%88%A9%E4%BA%9E%E6%97%A5</t>
   </si>
   <si>
-    <t>維多利亞日</t>
+    <t>维多利亚日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%AE%A4%E7%B4%80%E5%BF%B5%E6%97%A5</t>
   </si>
   <si>
-    <t>國殤紀念日</t>
+    <t>国殇纪念日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%82%E7%A4%BC%E6%97%A5</t>
@@ -713,7 +695,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1206,7 +1188,7 @@
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G5" t="n">
         <v>26</v>
@@ -1232,10 +1214,10 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
         <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
       </c>
       <c r="G6" t="n">
         <v>6</v>
@@ -1261,10 +1243,10 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
         <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -1290,10 +1272,10 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
         <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
       </c>
       <c r="G8" t="n">
         <v>5</v>
@@ -1319,10 +1301,10 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
         <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
       </c>
       <c r="G9" t="n">
         <v>3</v>
@@ -1348,10 +1330,10 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
         <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
       </c>
       <c r="G10" t="n">
         <v>11</v>
@@ -1377,10 +1359,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -1406,10 +1388,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>4</v>
@@ -1435,10 +1417,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1464,10 +1446,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>3</v>
@@ -1493,10 +1475,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -1522,10 +1504,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1551,10 +1533,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1580,10 +1562,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1609,10 +1591,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>2</v>
@@ -1638,10 +1620,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1667,10 +1649,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1696,10 +1678,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>3</v>
@@ -1725,10 +1707,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1754,10 +1736,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="G24" t="n">
         <v>2</v>
@@ -1783,10 +1765,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1812,10 +1794,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1841,10 +1823,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1870,10 +1852,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1899,10 +1881,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1928,10 +1910,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>2</v>
@@ -1957,10 +1939,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>19</v>
@@ -1986,10 +1968,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2015,10 +1997,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2044,10 +2026,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2073,10 +2055,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F35" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2102,10 +2084,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F36" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2131,10 +2113,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F37" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2160,10 +2142,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F38" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2189,10 +2171,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F39" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2218,10 +2200,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F40" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2247,10 +2229,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F41" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2276,10 +2258,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F42" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2305,10 +2287,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F43" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2334,10 +2316,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F44" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2363,10 +2345,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F45" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
@@ -2392,10 +2374,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F46" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2421,10 +2403,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F47" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G47" t="n">
         <v>6</v>
@@ -2450,10 +2432,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F48" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2479,10 +2461,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F49" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2508,10 +2490,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F50" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2537,10 +2519,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F51" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2566,10 +2548,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F52" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
@@ -2595,10 +2577,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F53" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2624,10 +2606,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F54" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G54" t="n">
         <v>3</v>
@@ -2653,10 +2635,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F55" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2682,10 +2664,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F56" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2711,10 +2693,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F57" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G57" t="n">
         <v>2</v>
@@ -2740,10 +2722,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F58" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2769,10 +2751,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F59" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G59" t="n">
         <v>2</v>
@@ -2798,10 +2780,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F60" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2827,10 +2809,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F61" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2856,10 +2838,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F62" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2885,10 +2867,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>18</v>
+      </c>
+      <c r="F63" t="s">
         <v>19</v>
-      </c>
-      <c r="F63" t="s">
-        <v>20</v>
       </c>
       <c r="G63" t="n">
         <v>16</v>
@@ -2914,10 +2896,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F64" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2943,10 +2925,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F65" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2972,10 +2954,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F66" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3001,10 +2983,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F67" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3030,10 +3012,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F68" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3059,10 +3041,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F69" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3088,10 +3070,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F70" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3117,10 +3099,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F71" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3146,10 +3128,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3175,10 +3157,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F73" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G73" t="n">
         <v>5</v>
@@ -3204,10 +3186,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F74" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G74" t="n">
         <v>3</v>
@@ -3233,10 +3215,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F75" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G75" t="n">
         <v>3</v>
@@ -3262,10 +3244,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F76" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3291,10 +3273,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F77" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3320,10 +3302,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3349,10 +3331,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3378,10 +3360,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F80" t="s">
-        <v>158</v>
+        <v>91</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3407,10 +3389,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F81" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3436,10 +3418,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F82" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3465,10 +3447,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F83" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -3494,10 +3476,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F84" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3523,10 +3505,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F85" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G85" t="n">
         <v>8</v>
@@ -3552,10 +3534,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F86" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3581,10 +3563,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F87" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G87" t="n">
         <v>4</v>
@@ -3610,10 +3592,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3639,10 +3621,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F89" t="s">
-        <v>176</v>
+        <v>33</v>
       </c>
       <c r="G89" t="n">
         <v>4</v>
@@ -3668,10 +3650,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F90" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3697,10 +3679,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F91" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G91" t="n">
         <v>2</v>
@@ -3726,10 +3708,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F92" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3755,10 +3737,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F93" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G93" t="n">
         <v>2</v>
@@ -3784,10 +3766,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F94" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3813,10 +3795,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F95" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3842,10 +3824,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F96" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3871,10 +3853,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F97" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3900,10 +3882,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F98" t="s">
-        <v>194</v>
+        <v>35</v>
       </c>
       <c r="G98" t="n">
         <v>3</v>
@@ -3929,10 +3911,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F99" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -3958,10 +3940,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F100" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
@@ -3987,10 +3969,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F101" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4016,10 +3998,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F102" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4045,10 +4027,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F103" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4074,10 +4056,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F104" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4103,10 +4085,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F105" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4132,10 +4114,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F106" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4161,10 +4143,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F107" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4190,10 +4172,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F108" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4219,10 +4201,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F109" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4248,10 +4230,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F110" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4277,10 +4259,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4306,10 +4288,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F112" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4335,10 +4317,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F113" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4364,10 +4346,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="F114" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4393,10 +4375,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F115" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4422,10 +4404,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F116" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4451,10 +4433,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F117" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="G117" t="n">
         <v>3</v>
@@ -4480,10 +4462,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F118" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
